--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -73,6 +73,15 @@
   </si>
   <si>
     <t>Protokoll und Beschluss Anwendung</t>
+  </si>
+  <si>
+    <t>Aktivitätsdiagramm</t>
+  </si>
+  <si>
+    <t>Datenbank Diagramm</t>
+  </si>
+  <si>
+    <t>Datenbank aufsetzen</t>
   </si>
 </sst>
 </file>
@@ -874,14 +883,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1192,7 +1201,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1203,7 +1212,7 @@
   <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="A37" sqref="A37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1352,19 +1361,29 @@
         <v>15</v>
       </c>
       <c r="B17" s="20"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="34"/>
+      <c r="C17" s="21">
+        <v>3</v>
+      </c>
+      <c r="D17" s="34">
+        <v>2</v>
+      </c>
       <c r="E17" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F17" s="23"/>
     </row>
     <row r="18" spans="1:6" s="22" customFormat="1">
-      <c r="A18" s="19"/>
+      <c r="A18" s="19" t="s">
+        <v>18</v>
+      </c>
       <c r="B18" s="20"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="34"/>
+      <c r="C18" s="21">
+        <v>2</v>
+      </c>
+      <c r="D18" s="34">
+        <v>2</v>
+      </c>
       <c r="E18" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1439,24 +1458,36 @@
       <c r="F24" s="23"/>
     </row>
     <row r="25" spans="1:6" s="22" customFormat="1">
-      <c r="A25" s="19"/>
+      <c r="A25" s="19" t="s">
+        <v>19</v>
+      </c>
       <c r="B25" s="20"/>
-      <c r="C25" s="66"/>
-      <c r="D25" s="67"/>
+      <c r="C25" s="26">
+        <v>1</v>
+      </c>
+      <c r="D25" s="36">
+        <v>2</v>
+      </c>
       <c r="E25" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" s="22" customFormat="1">
-      <c r="A26" s="19"/>
+      <c r="A26" s="19" t="s">
+        <v>20</v>
+      </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="66"/>
-      <c r="D26" s="67"/>
+      <c r="C26" s="66">
+        <v>2</v>
+      </c>
+      <c r="D26" s="67">
+        <v>1</v>
+      </c>
       <c r="E26" s="47">
         <f>D26-C26</f>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F26" s="23"/>
     </row>
@@ -1630,7 +1661,7 @@
       <c r="B41" s="18"/>
       <c r="C41" s="25"/>
       <c r="D41" s="37"/>
-      <c r="E41" s="74"/>
+      <c r="E41" s="72"/>
       <c r="F41" s="39"/>
     </row>
     <row r="43" spans="1:7">
@@ -1640,15 +1671,15 @@
       </c>
       <c r="C43" s="70">
         <f>SUM(C14:C41)</f>
-        <v>12</v>
+        <v>20</v>
       </c>
       <c r="D43" s="71">
         <f>SUM(D14:D41)</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E43" s="69">
         <f>SUM(E14:E41)</f>
-        <v>-1</v>
+        <v>-2</v>
       </c>
     </row>
     <row r="46" spans="1:7" ht="12" thickBot="1">
@@ -1659,14 +1690,14 @@
       <c r="G46" s="60"/>
     </row>
     <row r="47" spans="1:7" ht="12" thickBot="1">
-      <c r="C47" s="72" t="s">
+      <c r="C47" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="73"/>
-      <c r="E47" s="73"/>
+      <c r="D47" s="74"/>
+      <c r="E47" s="74"/>
       <c r="F47" s="55">
         <f>D43</f>
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="G47" s="16"/>
     </row>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="9600" windowHeight="3996"/>
+    <workbookView xWindow="11400" yWindow="-216" windowWidth="11664" windowHeight="9804"/>
   </bookViews>
   <sheets>
     <sheet name="Ressourcenplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -82,6 +82,21 @@
   </si>
   <si>
     <t>Datenbank aufsetzen</t>
+  </si>
+  <si>
+    <t>Ist-Soll-Vergleich</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement</t>
+  </si>
+  <si>
+    <t>Schnittstellen</t>
+  </si>
+  <si>
+    <t>Use Case Diagramm</t>
+  </si>
+  <si>
+    <t>HTML Template</t>
   </si>
 </sst>
 </file>
@@ -1201,7 +1216,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1211,8 +1226,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G48"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A37" sqref="A37"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A33" sqref="A33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1391,7 +1406,9 @@
       <c r="F18" s="23"/>
     </row>
     <row r="19" spans="1:6" s="22" customFormat="1">
-      <c r="A19" s="19"/>
+      <c r="A19" s="19" t="s">
+        <v>21</v>
+      </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21"/>
       <c r="D19" s="34"/>
@@ -1546,10 +1563,16 @@
       <c r="F30" s="29"/>
     </row>
     <row r="31" spans="1:6" s="9" customFormat="1">
-      <c r="A31" s="8"/>
+      <c r="A31" s="8" t="s">
+        <v>22</v>
+      </c>
       <c r="B31" s="17"/>
-      <c r="C31" s="26"/>
-      <c r="D31" s="36"/>
+      <c r="C31" s="26">
+        <v>4</v>
+      </c>
+      <c r="D31" s="36">
+        <v>4</v>
+      </c>
       <c r="E31" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1557,10 +1580,16 @@
       <c r="F31" s="29"/>
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1">
-      <c r="A32" s="8"/>
+      <c r="A32" s="8" t="s">
+        <v>23</v>
+      </c>
       <c r="B32" s="17"/>
-      <c r="C32" s="26"/>
-      <c r="D32" s="36"/>
+      <c r="C32" s="26">
+        <v>2</v>
+      </c>
+      <c r="D32" s="36">
+        <v>2</v>
+      </c>
       <c r="E32" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1613,10 +1642,16 @@
       <c r="F36" s="38"/>
     </row>
     <row r="37" spans="1:7" s="9" customFormat="1">
-      <c r="A37" s="8"/>
+      <c r="A37" s="8" t="s">
+        <v>24</v>
+      </c>
       <c r="B37" s="17"/>
-      <c r="C37" s="26"/>
-      <c r="D37" s="36"/>
+      <c r="C37" s="26">
+        <v>2</v>
+      </c>
+      <c r="D37" s="36">
+        <v>2</v>
+      </c>
       <c r="E37" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1624,10 +1659,16 @@
       <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1">
-      <c r="A38" s="8"/>
+      <c r="A38" s="8" t="s">
+        <v>25</v>
+      </c>
       <c r="B38" s="17"/>
-      <c r="C38" s="26"/>
-      <c r="D38" s="36"/>
+      <c r="C38" s="26">
+        <v>3</v>
+      </c>
+      <c r="D38" s="36">
+        <v>3</v>
+      </c>
       <c r="E38" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
@@ -1671,11 +1712,11 @@
       </c>
       <c r="C43" s="70">
         <f>SUM(C14:C41)</f>
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="D43" s="71">
         <f>SUM(D14:D41)</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="E43" s="69">
         <f>SUM(E14:E41)</f>
@@ -1697,7 +1738,7 @@
       <c r="E47" s="74"/>
       <c r="F47" s="55">
         <f>D43</f>
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="G47" s="16"/>
     </row>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -69,9 +69,6 @@
     <t>Erstellung des Ressourcenplans</t>
   </si>
   <si>
-    <t>In Stunden (60min)</t>
-  </si>
-  <si>
     <t>Protokoll und Beschluss Anwendung</t>
   </si>
   <si>
@@ -97,6 +94,12 @@
   </si>
   <si>
     <t>HTML Template</t>
+  </si>
+  <si>
+    <t>Paperprototype</t>
+  </si>
+  <si>
+    <t>In Stunden (45min)</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1219,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1224,10 +1227,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G49"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="A33" sqref="A33"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1251,7 +1254,7 @@
     </row>
     <row r="3" spans="1:6">
       <c r="A3" s="50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B3" s="52"/>
     </row>
@@ -1281,7 +1284,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="50" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="B8" s="52"/>
     </row>
@@ -1332,7 +1335,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="47">
-        <f t="shared" ref="E14:E40" si="0">D14-C14</f>
+        <f t="shared" ref="E14:E41" si="0">D14-C14</f>
         <v>0</v>
       </c>
       <c r="F14" s="29"/>
@@ -1390,7 +1393,7 @@
     </row>
     <row r="18" spans="1:6" s="22" customFormat="1">
       <c r="A18" s="19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21">
@@ -1407,171 +1410,172 @@
     </row>
     <row r="19" spans="1:6" s="22" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B19" s="20"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="34"/>
+      <c r="C19" s="21">
+        <v>1</v>
+      </c>
+      <c r="D19" s="34">
+        <v>1</v>
+      </c>
       <c r="E19" s="48">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A20" s="10"/>
-      <c r="B20" s="18"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="35"/>
+    <row r="20" spans="1:6" s="22" customFormat="1">
+      <c r="A20" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="B20" s="20"/>
+      <c r="C20" s="21">
+        <v>2</v>
+      </c>
+      <c r="D20" s="34">
+        <v>2</v>
+      </c>
       <c r="E20" s="48"/>
-      <c r="F20" s="39"/>
-    </row>
-    <row r="21" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A21" s="2" t="s">
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A21" s="10"/>
+      <c r="B21" s="18"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="35"/>
+      <c r="E21" s="48"/>
+      <c r="F21" s="39"/>
+    </row>
+    <row r="22" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A22" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="14"/>
-      <c r="D21" s="6"/>
-      <c r="E21" s="49"/>
-      <c r="F21" s="28"/>
-    </row>
-    <row r="22" spans="1:6" s="7" customFormat="1">
-      <c r="A22" s="8" t="s">
+      <c r="C22" s="14"/>
+      <c r="D22" s="6"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="28"/>
+    </row>
+    <row r="23" spans="1:6" s="7" customFormat="1">
+      <c r="A23" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B22" s="17"/>
-      <c r="C22" s="24">
+      <c r="B23" s="17"/>
+      <c r="C23" s="24">
         <v>1</v>
       </c>
-      <c r="D22" s="33">
+      <c r="D23" s="33">
         <v>1</v>
       </c>
-      <c r="E22" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="38"/>
-    </row>
-    <row r="23" spans="1:6" s="9" customFormat="1">
-      <c r="A23" s="8"/>
-      <c r="B23" s="17"/>
-      <c r="C23" s="26"/>
-      <c r="D23" s="36"/>
-      <c r="E23" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="29"/>
-    </row>
-    <row r="24" spans="1:6" s="22" customFormat="1">
+      <c r="E23" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="38"/>
+    </row>
+    <row r="24" spans="1:6" s="9" customFormat="1">
       <c r="A24" s="8"/>
-      <c r="B24" s="20"/>
-      <c r="C24" s="24"/>
-      <c r="D24" s="33"/>
+      <c r="B24" s="17"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="36"/>
       <c r="E24" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F24" s="23"/>
+      <c r="F24" s="29"/>
     </row>
     <row r="25" spans="1:6" s="22" customFormat="1">
-      <c r="A25" s="19" t="s">
-        <v>19</v>
-      </c>
+      <c r="A25" s="8"/>
       <c r="B25" s="20"/>
-      <c r="C25" s="26">
-        <v>1</v>
-      </c>
-      <c r="D25" s="36">
-        <v>2</v>
-      </c>
+      <c r="C25" s="24"/>
+      <c r="D25" s="33"/>
       <c r="E25" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F25" s="23"/>
     </row>
     <row r="26" spans="1:6" s="22" customFormat="1">
       <c r="A26" s="19" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B26" s="20"/>
-      <c r="C26" s="66">
+      <c r="C26" s="26">
+        <v>1</v>
+      </c>
+      <c r="D26" s="36">
         <v>2</v>
       </c>
-      <c r="D26" s="67">
+      <c r="E26" s="47">
+        <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="E26" s="47">
-        <f>D26-C26</f>
+      <c r="F26" s="23"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1">
+      <c r="A27" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="66">
+        <v>2</v>
+      </c>
+      <c r="D27" s="67">
+        <v>1</v>
+      </c>
+      <c r="E27" s="47">
+        <f>D27-C27</f>
         <v>-1</v>
       </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A27" s="10"/>
-      <c r="B27" s="18"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F27" s="39"/>
-    </row>
-    <row r="28" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A28" s="2" t="s">
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A28" s="10"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="35"/>
+      <c r="E28" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F28" s="39"/>
+    </row>
+    <row r="29" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A29" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C28" s="14"/>
-      <c r="D28" s="6"/>
-      <c r="E28" s="49"/>
-      <c r="F28" s="28"/>
-    </row>
-    <row r="29" spans="1:6" s="7" customFormat="1">
-      <c r="A29" s="8" t="s">
+      <c r="C29" s="14"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="28"/>
+    </row>
+    <row r="30" spans="1:6" s="7" customFormat="1">
+      <c r="A30" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B29" s="17"/>
-      <c r="C29" s="24">
+      <c r="B30" s="17"/>
+      <c r="C30" s="24">
         <v>1</v>
       </c>
-      <c r="D29" s="33">
+      <c r="D30" s="33">
         <v>1</v>
       </c>
-      <c r="E29" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F29" s="38"/>
-    </row>
-    <row r="30" spans="1:6" s="9" customFormat="1">
-      <c r="A30" s="19" t="s">
+      <c r="E30" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F30" s="38"/>
+    </row>
+    <row r="31" spans="1:6" s="9" customFormat="1">
+      <c r="A31" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B30" s="20"/>
-      <c r="C30" s="21">
+      <c r="B31" s="20"/>
+      <c r="C31" s="21">
         <v>3</v>
       </c>
-      <c r="D30" s="34">
+      <c r="D31" s="34">
         <v>3</v>
-      </c>
-      <c r="E30" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="29"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1">
-      <c r="A31" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B31" s="17"/>
-      <c r="C31" s="26">
-        <v>4</v>
-      </c>
-      <c r="D31" s="36">
-        <v>4</v>
       </c>
       <c r="E31" s="47">
         <f t="shared" si="0"/>
@@ -1581,181 +1585,198 @@
     </row>
     <row r="32" spans="1:6" s="9" customFormat="1">
       <c r="A32" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B32" s="17"/>
       <c r="C32" s="26">
+        <v>4</v>
+      </c>
+      <c r="D32" s="36">
+        <v>4</v>
+      </c>
+      <c r="E32" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F32" s="29"/>
+    </row>
+    <row r="33" spans="1:7" s="9" customFormat="1">
+      <c r="A33" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="17"/>
+      <c r="C33" s="26">
         <v>2</v>
       </c>
-      <c r="D32" s="36">
+      <c r="D33" s="36">
         <v>2</v>
       </c>
-      <c r="E32" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" s="22" customFormat="1">
-      <c r="A33" s="8"/>
-      <c r="B33" s="20"/>
-      <c r="C33" s="27"/>
-      <c r="D33" s="33"/>
       <c r="E33" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F33" s="23"/>
-    </row>
-    <row r="34" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A34" s="10"/>
-      <c r="B34" s="18"/>
-      <c r="C34" s="25"/>
-      <c r="D34" s="37"/>
-      <c r="E34" s="47"/>
-      <c r="F34" s="39"/>
-    </row>
-    <row r="35" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A35" s="2" t="s">
+      <c r="F33" s="29"/>
+    </row>
+    <row r="34" spans="1:7" s="22" customFormat="1">
+      <c r="A34" s="8"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="33"/>
+      <c r="E34" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="23"/>
+    </row>
+    <row r="35" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="25"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="47"/>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A36" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="C35" s="14"/>
-      <c r="D35" s="6"/>
-      <c r="E35" s="49"/>
-      <c r="F35" s="28"/>
-    </row>
-    <row r="36" spans="1:7" s="7" customFormat="1">
-      <c r="A36" s="8" t="s">
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:7" s="7" customFormat="1">
+      <c r="A37" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="24">
+      <c r="B37" s="17"/>
+      <c r="C37" s="24">
         <v>1</v>
       </c>
-      <c r="D36" s="33">
+      <c r="D37" s="33">
         <v>1</v>
       </c>
-      <c r="E36" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="38"/>
-    </row>
-    <row r="37" spans="1:7" s="9" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="26">
-        <v>2</v>
-      </c>
-      <c r="D37" s="36">
-        <v>2</v>
-      </c>
       <c r="E37" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="29"/>
+      <c r="F37" s="38"/>
     </row>
     <row r="38" spans="1:7" s="9" customFormat="1">
       <c r="A38" s="8" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B38" s="17"/>
       <c r="C38" s="26">
+        <v>2</v>
+      </c>
+      <c r="D38" s="36">
+        <v>2</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:7" s="9" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="26">
         <v>3</v>
       </c>
-      <c r="D38" s="36">
+      <c r="D39" s="36">
         <v>3</v>
       </c>
-      <c r="E38" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" s="22" customFormat="1">
-      <c r="A39" s="8"/>
-      <c r="B39" s="20"/>
-      <c r="C39" s="27"/>
-      <c r="D39" s="33"/>
       <c r="E39" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F39" s="23"/>
+      <c r="F39" s="29"/>
     </row>
     <row r="40" spans="1:7" s="22" customFormat="1">
-      <c r="A40" s="19"/>
+      <c r="A40" s="8"/>
       <c r="B40" s="20"/>
-      <c r="C40" s="66"/>
-      <c r="D40" s="67"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="33"/>
       <c r="E40" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="F40" s="23"/>
     </row>
-    <row r="41" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A41" s="10"/>
-      <c r="B41" s="18"/>
-      <c r="C41" s="25"/>
-      <c r="D41" s="37"/>
-      <c r="E41" s="72"/>
-      <c r="F41" s="39"/>
-    </row>
-    <row r="43" spans="1:7">
-      <c r="A43" s="68"/>
-      <c r="B43" s="68" t="s">
+    <row r="41" spans="1:7" s="22" customFormat="1">
+      <c r="A41" s="19"/>
+      <c r="B41" s="20"/>
+      <c r="C41" s="66"/>
+      <c r="D41" s="67"/>
+      <c r="E41" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A42" s="10"/>
+      <c r="B42" s="18"/>
+      <c r="C42" s="25"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="72"/>
+      <c r="F42" s="39"/>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="68"/>
+      <c r="B44" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C43" s="70">
-        <f>SUM(C14:C41)</f>
-        <v>31</v>
-      </c>
-      <c r="D43" s="71">
-        <f>SUM(D14:D41)</f>
-        <v>29</v>
-      </c>
-      <c r="E43" s="69">
-        <f>SUM(E14:E41)</f>
+      <c r="C44" s="70">
+        <f>SUM(C14:C42)</f>
+        <v>34</v>
+      </c>
+      <c r="D44" s="71">
+        <f>SUM(D14:D42)</f>
+        <v>32</v>
+      </c>
+      <c r="E44" s="69">
+        <f>SUM(E14:E42)</f>
         <v>-2</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="12" thickBot="1">
-      <c r="C46" s="56"/>
-      <c r="D46" s="57"/>
-      <c r="E46" s="58"/>
-      <c r="F46" s="59"/>
-      <c r="G46" s="60"/>
-    </row>
     <row r="47" spans="1:7" ht="12" thickBot="1">
-      <c r="C47" s="73" t="s">
+      <c r="C47" s="56"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="58"/>
+      <c r="F47" s="59"/>
+      <c r="G47" s="60"/>
+    </row>
+    <row r="48" spans="1:7" ht="12" thickBot="1">
+      <c r="C48" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D47" s="74"/>
-      <c r="E47" s="74"/>
-      <c r="F47" s="55">
-        <f>D43</f>
-        <v>29</v>
-      </c>
-      <c r="G47" s="16"/>
-    </row>
-    <row r="48" spans="1:7">
-      <c r="A48" s="64"/>
-      <c r="B48" s="65"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="62"/>
-      <c r="E48" s="63"/>
-      <c r="F48" s="64"/>
-      <c r="G48" s="65"/>
+      <c r="D48" s="74"/>
+      <c r="E48" s="74"/>
+      <c r="F48" s="55">
+        <f>D44</f>
+        <v>32</v>
+      </c>
+      <c r="G48" s="16"/>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="64"/>
+      <c r="B49" s="65"/>
+      <c r="C49" s="61"/>
+      <c r="D49" s="62"/>
+      <c r="E49" s="63"/>
+      <c r="F49" s="64"/>
+      <c r="G49" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C47:E47"/>
+    <mergeCell ref="C48:E48"/>
   </mergeCells>
-  <conditionalFormatting sqref="E48:E1048576 E13:E46">
+  <conditionalFormatting sqref="E49:E1048576 E13:E47">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="6" rupBuild="4505"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="11400" yWindow="-216" windowWidth="11664" windowHeight="9804"/>
+    <workbookView xWindow="-48" yWindow="48" windowWidth="12228" windowHeight="9648"/>
   </bookViews>
   <sheets>
     <sheet name="Ressourcenplan" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -100,6 +100,24 @@
   </si>
   <si>
     <t>In Stunden (45min)</t>
+  </si>
+  <si>
+    <t>Qualitätssicherung Der Datenbank</t>
+  </si>
+  <si>
+    <t>Projektstruckturplan</t>
+  </si>
+  <si>
+    <t>Dokumentation</t>
+  </si>
+  <si>
+    <t>Webanwendung erstellen</t>
+  </si>
+  <si>
+    <t>! Abzug der doppelten! Noch machen</t>
+  </si>
+  <si>
+    <t>Testdaten für die Datenbank</t>
   </si>
 </sst>
 </file>
@@ -914,7 +932,91 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="12">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <color rgb="FF00B050"/>
+      </font>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1219,7 +1321,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1227,10 +1329,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G49"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="C31" sqref="C31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1335,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="47">
-        <f t="shared" ref="E14:E41" si="0">D14-C14</f>
+        <f t="shared" ref="E14:E44" si="0">D14-C14</f>
         <v>0</v>
       </c>
       <c r="F14" s="29"/>
@@ -1346,10 +1448,10 @@
       </c>
       <c r="B15" s="20"/>
       <c r="C15" s="21">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" s="34">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="E15" s="47">
         <f t="shared" si="0"/>
@@ -1363,14 +1465,14 @@
       </c>
       <c r="B16" s="20"/>
       <c r="C16" s="21">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16" s="34">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E16" s="47">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F16" s="23"/>
     </row>
@@ -1380,14 +1482,14 @@
       </c>
       <c r="B17" s="20"/>
       <c r="C17" s="21">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" s="34">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E17" s="47">
         <f t="shared" si="0"/>
-        <v>-1</v>
+        <v>0</v>
       </c>
       <c r="F17" s="23"/>
     </row>
@@ -1397,14 +1499,14 @@
       </c>
       <c r="B18" s="20"/>
       <c r="C18" s="21">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D18" s="34">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E18" s="48">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>-1</v>
       </c>
       <c r="F18" s="23"/>
     </row>
@@ -1431,359 +1533,444 @@
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="21">
+        <v>4</v>
+      </c>
+      <c r="D20" s="34">
+        <v>4</v>
+      </c>
+      <c r="E20" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F20" s="23"/>
+    </row>
+    <row r="21" spans="1:6" s="22" customFormat="1">
+      <c r="A21" s="19" t="s">
+        <v>28</v>
+      </c>
+      <c r="B21" s="20"/>
+      <c r="C21" s="21">
+        <v>6</v>
+      </c>
+      <c r="D21" s="34">
+        <v>5</v>
+      </c>
+      <c r="E21" s="48">
+        <f t="shared" si="0"/>
+        <v>-1</v>
+      </c>
+      <c r="F21" s="23"/>
+    </row>
+    <row r="22" spans="1:6" s="22" customFormat="1">
+      <c r="A22" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B22" s="20"/>
+      <c r="C22" s="21">
+        <v>11</v>
+      </c>
+      <c r="D22" s="34">
+        <v>11</v>
+      </c>
+      <c r="E22" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:6" s="22" customFormat="1">
+      <c r="A23" s="19"/>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21"/>
+      <c r="D23" s="34"/>
+      <c r="E23" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F23" s="23"/>
+    </row>
+    <row r="24" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A24" s="10"/>
+      <c r="B24" s="18"/>
+      <c r="C24" s="15"/>
+      <c r="D24" s="35"/>
+      <c r="E24" s="48"/>
+      <c r="F24" s="39"/>
+    </row>
+    <row r="25" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A25" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="14"/>
+      <c r="D25" s="6"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="28"/>
+    </row>
+    <row r="26" spans="1:6" s="7" customFormat="1">
+      <c r="A26" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B26" s="17"/>
+      <c r="C26" s="24">
+        <v>1</v>
+      </c>
+      <c r="D26" s="33">
+        <v>1</v>
+      </c>
+      <c r="E26" s="46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="38"/>
+    </row>
+    <row r="27" spans="1:6" s="22" customFormat="1">
+      <c r="A27" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" s="20"/>
+      <c r="C27" s="24">
         <v>2</v>
       </c>
-      <c r="D20" s="34">
+      <c r="D27" s="33">
         <v>2</v>
-      </c>
-      <c r="E20" s="48"/>
-      <c r="F20" s="23"/>
-    </row>
-    <row r="21" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A21" s="10"/>
-      <c r="B21" s="18"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="35"/>
-      <c r="E21" s="48"/>
-      <c r="F21" s="39"/>
-    </row>
-    <row r="22" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A22" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="C22" s="14"/>
-      <c r="D22" s="6"/>
-      <c r="E22" s="49"/>
-      <c r="F22" s="28"/>
-    </row>
-    <row r="23" spans="1:6" s="7" customFormat="1">
-      <c r="A23" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B23" s="17"/>
-      <c r="C23" s="24">
-        <v>1</v>
-      </c>
-      <c r="D23" s="33">
-        <v>1</v>
-      </c>
-      <c r="E23" s="46">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F23" s="38"/>
-    </row>
-    <row r="24" spans="1:6" s="9" customFormat="1">
-      <c r="A24" s="8"/>
-      <c r="B24" s="17"/>
-      <c r="C24" s="26"/>
-      <c r="D24" s="36"/>
-      <c r="E24" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F24" s="29"/>
-    </row>
-    <row r="25" spans="1:6" s="22" customFormat="1">
-      <c r="A25" s="8"/>
-      <c r="B25" s="20"/>
-      <c r="C25" s="24"/>
-      <c r="D25" s="33"/>
-      <c r="E25" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F25" s="23"/>
-    </row>
-    <row r="26" spans="1:6" s="22" customFormat="1">
-      <c r="A26" s="19" t="s">
-        <v>18</v>
-      </c>
-      <c r="B26" s="20"/>
-      <c r="C26" s="26">
-        <v>1</v>
-      </c>
-      <c r="D26" s="36">
-        <v>2</v>
-      </c>
-      <c r="E26" s="47">
-        <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F26" s="23"/>
-    </row>
-    <row r="27" spans="1:6" s="22" customFormat="1">
-      <c r="A27" s="19" t="s">
-        <v>19</v>
-      </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="66">
-        <v>2</v>
-      </c>
-      <c r="D27" s="67">
-        <v>1</v>
       </c>
       <c r="E27" s="47">
         <f>D27-C27</f>
+        <v>0</v>
+      </c>
+      <c r="F27" s="23"/>
+    </row>
+    <row r="28" spans="1:6" s="22" customFormat="1">
+      <c r="A28" s="19" t="s">
+        <v>18</v>
+      </c>
+      <c r="B28" s="20"/>
+      <c r="C28" s="26">
+        <v>1</v>
+      </c>
+      <c r="D28" s="36">
+        <v>2</v>
+      </c>
+      <c r="E28" s="47">
+        <f>D28-C28</f>
+        <v>1</v>
+      </c>
+      <c r="F28" s="23"/>
+    </row>
+    <row r="29" spans="1:6" s="22" customFormat="1">
+      <c r="A29" s="19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B29" s="20"/>
+      <c r="C29" s="26">
+        <v>2</v>
+      </c>
+      <c r="D29" s="36">
+        <v>1</v>
+      </c>
+      <c r="E29" s="47">
+        <f>D29-C29</f>
         <v>-1</v>
       </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A28" s="10"/>
-      <c r="B28" s="18"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="35"/>
-      <c r="E28" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F28" s="39"/>
-    </row>
-    <row r="29" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A29" s="2" t="s">
+      <c r="F29" s="23"/>
+    </row>
+    <row r="30" spans="1:6">
+      <c r="A30" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B30" s="20"/>
+      <c r="C30" s="66">
+        <v>2</v>
+      </c>
+      <c r="D30" s="67">
+        <v>1</v>
+      </c>
+      <c r="E30" s="47">
+        <f>D30-C30</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A31" s="10"/>
+      <c r="B31" s="18"/>
+      <c r="C31" s="15"/>
+      <c r="D31" s="35"/>
+      <c r="E31" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F31" s="39"/>
+    </row>
+    <row r="32" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="C29" s="14"/>
-      <c r="D29" s="6"/>
-      <c r="E29" s="49"/>
-      <c r="F29" s="28"/>
-    </row>
-    <row r="30" spans="1:6" s="7" customFormat="1">
-      <c r="A30" s="8" t="s">
+      <c r="C32" s="14"/>
+      <c r="D32" s="6"/>
+      <c r="E32" s="49"/>
+      <c r="F32" s="28"/>
+    </row>
+    <row r="33" spans="1:7" s="7" customFormat="1">
+      <c r="A33" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B30" s="17"/>
-      <c r="C30" s="24">
+      <c r="B33" s="17"/>
+      <c r="C33" s="24">
         <v>1</v>
       </c>
-      <c r="D30" s="33">
+      <c r="D33" s="33">
         <v>1</v>
       </c>
-      <c r="E30" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F30" s="38"/>
-    </row>
-    <row r="31" spans="1:6" s="9" customFormat="1">
-      <c r="A31" s="19" t="s">
+      <c r="E33" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F33" s="38"/>
+    </row>
+    <row r="34" spans="1:7" s="9" customFormat="1">
+      <c r="A34" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="B31" s="20"/>
-      <c r="C31" s="21">
+      <c r="B34" s="20"/>
+      <c r="C34" s="21">
+        <v>5</v>
+      </c>
+      <c r="D34" s="34">
+        <v>5</v>
+      </c>
+      <c r="E34" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F34" s="29"/>
+    </row>
+    <row r="35" spans="1:7" s="9" customFormat="1">
+      <c r="A35" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B35" s="17"/>
+      <c r="C35" s="26">
+        <v>6</v>
+      </c>
+      <c r="D35" s="36">
+        <v>7</v>
+      </c>
+      <c r="E35" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F35" s="29"/>
+    </row>
+    <row r="36" spans="1:7" s="9" customFormat="1">
+      <c r="A36" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B36" s="17"/>
+      <c r="C36" s="26">
         <v>3</v>
       </c>
-      <c r="D31" s="34">
+      <c r="D36" s="36">
         <v>3</v>
       </c>
-      <c r="E31" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="29"/>
-    </row>
-    <row r="32" spans="1:6" s="9" customFormat="1">
-      <c r="A32" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B32" s="17"/>
-      <c r="C32" s="26">
-        <v>4</v>
-      </c>
-      <c r="D32" s="36">
-        <v>4</v>
-      </c>
-      <c r="E32" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F32" s="29"/>
-    </row>
-    <row r="33" spans="1:7" s="9" customFormat="1">
-      <c r="A33" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="26">
+      <c r="E36" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" s="22" customFormat="1">
+      <c r="A37" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37" s="20"/>
+      <c r="C37" s="27">
+        <v>13</v>
+      </c>
+      <c r="D37" s="33">
+        <v>13</v>
+      </c>
+      <c r="E37" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F37" s="23"/>
+    </row>
+    <row r="38" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A38" s="10"/>
+      <c r="B38" s="18"/>
+      <c r="C38" s="25"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="47"/>
+      <c r="F38" s="39"/>
+    </row>
+    <row r="39" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A39" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C39" s="14"/>
+      <c r="D39" s="6"/>
+      <c r="E39" s="49"/>
+      <c r="F39" s="28"/>
+    </row>
+    <row r="40" spans="1:7" s="7" customFormat="1">
+      <c r="A40" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B40" s="17"/>
+      <c r="C40" s="24">
+        <v>1</v>
+      </c>
+      <c r="D40" s="33">
+        <v>1</v>
+      </c>
+      <c r="E40" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F40" s="38"/>
+    </row>
+    <row r="41" spans="1:7" s="9" customFormat="1">
+      <c r="A41" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B41" s="17"/>
+      <c r="C41" s="26">
         <v>2</v>
       </c>
-      <c r="D33" s="36">
+      <c r="D41" s="36">
         <v>2</v>
       </c>
-      <c r="E33" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="29"/>
-    </row>
-    <row r="34" spans="1:7" s="22" customFormat="1">
-      <c r="A34" s="8"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="27"/>
-      <c r="D34" s="33"/>
-      <c r="E34" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="23"/>
-    </row>
-    <row r="35" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A35" s="10"/>
-      <c r="B35" s="18"/>
-      <c r="C35" s="25"/>
-      <c r="D35" s="37"/>
-      <c r="E35" s="47"/>
-      <c r="F35" s="39"/>
-    </row>
-    <row r="36" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A36" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="C36" s="14"/>
-      <c r="D36" s="6"/>
-      <c r="E36" s="49"/>
-      <c r="F36" s="28"/>
-    </row>
-    <row r="37" spans="1:7" s="7" customFormat="1">
-      <c r="A37" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B37" s="17"/>
-      <c r="C37" s="24">
-        <v>1</v>
-      </c>
-      <c r="D37" s="33">
-        <v>1</v>
-      </c>
-      <c r="E37" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F37" s="38"/>
-    </row>
-    <row r="38" spans="1:7" s="9" customFormat="1">
-      <c r="A38" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="B38" s="17"/>
-      <c r="C38" s="26">
-        <v>2</v>
-      </c>
-      <c r="D38" s="36">
-        <v>2</v>
-      </c>
-      <c r="E38" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F38" s="29"/>
-    </row>
-    <row r="39" spans="1:7" s="9" customFormat="1">
-      <c r="A39" s="8" t="s">
+      <c r="E41" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" s="9" customFormat="1">
+      <c r="A42" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="B39" s="17"/>
-      <c r="C39" s="26">
+      <c r="B42" s="17"/>
+      <c r="C42" s="26">
         <v>3</v>
       </c>
-      <c r="D39" s="36">
+      <c r="D42" s="36">
         <v>3</v>
       </c>
-      <c r="E39" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" s="22" customFormat="1">
-      <c r="A40" s="8"/>
-      <c r="B40" s="20"/>
-      <c r="C40" s="27"/>
-      <c r="D40" s="33"/>
-      <c r="E40" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F40" s="23"/>
-    </row>
-    <row r="41" spans="1:7" s="22" customFormat="1">
-      <c r="A41" s="19"/>
-      <c r="B41" s="20"/>
-      <c r="C41" s="66"/>
-      <c r="D41" s="67"/>
-      <c r="E41" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F41" s="23"/>
-    </row>
-    <row r="42" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A42" s="10"/>
-      <c r="B42" s="18"/>
-      <c r="C42" s="25"/>
-      <c r="D42" s="37"/>
-      <c r="E42" s="72"/>
-      <c r="F42" s="39"/>
-    </row>
-    <row r="44" spans="1:7">
-      <c r="A44" s="68"/>
-      <c r="B44" s="68" t="s">
+      <c r="E42" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F42" s="29"/>
+    </row>
+    <row r="43" spans="1:7" s="22" customFormat="1">
+      <c r="A43" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B43" s="20"/>
+      <c r="C43" s="27">
+        <v>13</v>
+      </c>
+      <c r="D43" s="33">
+        <v>13</v>
+      </c>
+      <c r="E43" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F43" s="23"/>
+    </row>
+    <row r="44" spans="1:7" s="22" customFormat="1">
+      <c r="A44" s="19"/>
+      <c r="B44" s="20"/>
+      <c r="C44" s="66"/>
+      <c r="D44" s="67"/>
+      <c r="E44" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F44" s="23"/>
+    </row>
+    <row r="45" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A45" s="10"/>
+      <c r="B45" s="18"/>
+      <c r="C45" s="25"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="72"/>
+      <c r="F45" s="39"/>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="68"/>
+      <c r="B47" s="68" t="s">
         <v>3</v>
       </c>
-      <c r="C44" s="70">
-        <f>SUM(C14:C42)</f>
-        <v>34</v>
-      </c>
-      <c r="D44" s="71">
-        <f>SUM(D14:D42)</f>
-        <v>32</v>
-      </c>
-      <c r="E44" s="69">
-        <f>SUM(E14:E42)</f>
+      <c r="C47" s="70">
+        <f>SUM(C14:C45)</f>
+        <v>94</v>
+      </c>
+      <c r="D47" s="71">
+        <f>SUM(D14:D45)</f>
+        <v>92</v>
+      </c>
+      <c r="E47" s="69">
+        <f>SUM(E14:E45)</f>
         <v>-2</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" ht="12" thickBot="1">
-      <c r="C47" s="56"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="58"/>
-      <c r="F47" s="59"/>
-      <c r="G47" s="60"/>
-    </row>
-    <row r="48" spans="1:7" ht="12" thickBot="1">
-      <c r="C48" s="73" t="s">
+      <c r="G47" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" ht="12" thickBot="1">
+      <c r="C50" s="56"/>
+      <c r="D50" s="57"/>
+      <c r="E50" s="58"/>
+      <c r="F50" s="59"/>
+      <c r="G50" s="60"/>
+    </row>
+    <row r="51" spans="1:7" ht="12" thickBot="1">
+      <c r="C51" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="D48" s="74"/>
-      <c r="E48" s="74"/>
-      <c r="F48" s="55">
-        <f>D44</f>
-        <v>32</v>
-      </c>
-      <c r="G48" s="16"/>
-    </row>
-    <row r="49" spans="1:7">
-      <c r="A49" s="64"/>
-      <c r="B49" s="65"/>
-      <c r="C49" s="61"/>
-      <c r="D49" s="62"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="65"/>
+      <c r="D51" s="74"/>
+      <c r="E51" s="74"/>
+      <c r="F51" s="55">
+        <f>D47</f>
+        <v>92</v>
+      </c>
+      <c r="G51" s="16"/>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="64"/>
+      <c r="B52" s="65"/>
+      <c r="C52" s="61"/>
+      <c r="D52" s="62"/>
+      <c r="E52" s="63"/>
+      <c r="F52" s="64"/>
+      <c r="G52" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C48:E48"/>
+    <mergeCell ref="C51:E51"/>
   </mergeCells>
-  <conditionalFormatting sqref="E49:E1048576 E13:E47">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+  <conditionalFormatting sqref="E52:E1048576 E31:E50 E13:E29">
+    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+      <formula>0</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E30">
+    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+      <formula>0</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -118,6 +118,9 @@
   </si>
   <si>
     <t>Testdaten für die Datenbank</t>
+  </si>
+  <si>
+    <t>Sequenzdiagramm</t>
   </si>
 </sst>
 </file>
@@ -932,35 +935,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="12">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1321,7 +1296,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1332,7 +1307,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C31" sqref="C31"/>
+      <selection activeCell="H23" sqref="H23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1476,7 +1451,7 @@
       </c>
       <c r="F16" s="23"/>
     </row>
-    <row r="17" spans="1:6" s="22" customFormat="1">
+    <row r="17" spans="1:7" s="22" customFormat="1">
       <c r="A17" s="19" t="s">
         <v>15</v>
       </c>
@@ -1493,7 +1468,7 @@
       </c>
       <c r="F17" s="23"/>
     </row>
-    <row r="18" spans="1:6" s="22" customFormat="1">
+    <row r="18" spans="1:7" s="22" customFormat="1">
       <c r="A18" s="19" t="s">
         <v>17</v>
       </c>
@@ -1510,7 +1485,7 @@
       </c>
       <c r="F18" s="23"/>
     </row>
-    <row r="19" spans="1:6" s="22" customFormat="1">
+    <row r="19" spans="1:7" s="22" customFormat="1">
       <c r="A19" s="19" t="s">
         <v>20</v>
       </c>
@@ -1527,7 +1502,7 @@
       </c>
       <c r="F19" s="23"/>
     </row>
-    <row r="20" spans="1:6" s="22" customFormat="1">
+    <row r="20" spans="1:7" s="22" customFormat="1">
       <c r="A20" s="19" t="s">
         <v>25</v>
       </c>
@@ -1544,7 +1519,7 @@
       </c>
       <c r="F20" s="23"/>
     </row>
-    <row r="21" spans="1:6" s="22" customFormat="1">
+    <row r="21" spans="1:7" s="22" customFormat="1">
       <c r="A21" s="19" t="s">
         <v>28</v>
       </c>
@@ -1561,43 +1536,50 @@
       </c>
       <c r="F21" s="23"/>
     </row>
-    <row r="22" spans="1:6" s="22" customFormat="1">
+    <row r="22" spans="1:7" s="22" customFormat="1">
       <c r="A22" s="19" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21">
+        <v>1</v>
+      </c>
+      <c r="D22" s="34">
+        <v>1</v>
+      </c>
+      <c r="E22" s="48">
+        <f>D22-C22</f>
+        <v>0</v>
+      </c>
+      <c r="F22" s="23"/>
+    </row>
+    <row r="23" spans="1:7" s="22" customFormat="1">
+      <c r="A23" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B23" s="20"/>
+      <c r="C23" s="21">
         <v>11</v>
       </c>
-      <c r="D22" s="34">
+      <c r="D23" s="34">
         <v>11</v>
       </c>
-      <c r="E22" s="48">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F22" s="23"/>
-    </row>
-    <row r="23" spans="1:6" s="22" customFormat="1">
-      <c r="A23" s="19"/>
-      <c r="B23" s="20"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="34"/>
       <c r="E23" s="48">
-        <f t="shared" si="0"/>
+        <f>D23-C23</f>
         <v>0</v>
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A24" s="10"/>
-      <c r="B24" s="18"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="35"/>
+    <row r="24" spans="1:7" ht="12" thickBot="1">
+      <c r="A24" s="19"/>
+      <c r="B24" s="20"/>
+      <c r="C24" s="21"/>
+      <c r="D24" s="34"/>
       <c r="E24" s="48"/>
-      <c r="F24" s="39"/>
-    </row>
-    <row r="25" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="F24" s="23"/>
+      <c r="G24" s="22"/>
+    </row>
+    <row r="25" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
       <c r="A25" s="2" t="s">
         <v>11</v>
       </c>
@@ -1606,7 +1588,7 @@
       <c r="E25" s="49"/>
       <c r="F25" s="28"/>
     </row>
-    <row r="26" spans="1:6" s="7" customFormat="1">
+    <row r="26" spans="1:7" s="7" customFormat="1">
       <c r="A26" s="8" t="s">
         <v>6</v>
       </c>
@@ -1623,7 +1605,7 @@
       </c>
       <c r="F26" s="38"/>
     </row>
-    <row r="27" spans="1:6" s="22" customFormat="1">
+    <row r="27" spans="1:7" s="22" customFormat="1">
       <c r="A27" s="8" t="s">
         <v>27</v>
       </c>
@@ -1640,7 +1622,7 @@
       </c>
       <c r="F27" s="23"/>
     </row>
-    <row r="28" spans="1:6" s="22" customFormat="1">
+    <row r="28" spans="1:7" s="22" customFormat="1">
       <c r="A28" s="19" t="s">
         <v>18</v>
       </c>
@@ -1657,7 +1639,7 @@
       </c>
       <c r="F28" s="23"/>
     </row>
-    <row r="29" spans="1:6" s="22" customFormat="1">
+    <row r="29" spans="1:7" s="22" customFormat="1">
       <c r="A29" s="19" t="s">
         <v>19</v>
       </c>
@@ -1674,7 +1656,7 @@
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
         <v>32</v>
       </c>
@@ -1690,7 +1672,7 @@
         <v>-1</v>
       </c>
     </row>
-    <row r="31" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+    <row r="31" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
       <c r="A31" s="10"/>
       <c r="B31" s="18"/>
       <c r="C31" s="15"/>
@@ -1701,7 +1683,7 @@
       </c>
       <c r="F31" s="39"/>
     </row>
-    <row r="32" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+    <row r="32" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
       <c r="A32" s="2" t="s">
         <v>12</v>
       </c>
@@ -1906,11 +1888,11 @@
       </c>
       <c r="C47" s="70">
         <f>SUM(C14:C45)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="D47" s="71">
         <f>SUM(D14:D45)</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="E47" s="69">
         <f>SUM(E14:E45)</f>
@@ -1935,7 +1917,7 @@
       <c r="E51" s="74"/>
       <c r="F51" s="55">
         <f>D47</f>
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="G51" s="16"/>
     </row>
@@ -1952,18 +1934,18 @@
   <mergeCells count="1">
     <mergeCell ref="C51:E51"/>
   </mergeCells>
-  <conditionalFormatting sqref="E52:E1048576 E31:E50 E13:E29">
-    <cfRule type="cellIs" dxfId="8" priority="4" operator="equal">
+  <conditionalFormatting sqref="E52:E1048576 E25:E50 E13:E23">
+    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="5" operator="lessThan">
+    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="6" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
+  <conditionalFormatting sqref="E24">
     <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -75,18 +75,12 @@
     <t>Aktivitätsdiagramm</t>
   </si>
   <si>
-    <t>Datenbank Diagramm</t>
-  </si>
-  <si>
     <t>Datenbank aufsetzen</t>
   </si>
   <si>
     <t>Ist-Soll-Vergleich</t>
   </si>
   <si>
-    <t>Qualitätsmanagement</t>
-  </si>
-  <si>
     <t>Schnittstellen</t>
   </si>
   <si>
@@ -121,6 +115,12 @@
   </si>
   <si>
     <t>Sequenzdiagramm</t>
+  </si>
+  <si>
+    <t>ERD</t>
+  </si>
+  <si>
+    <t>Qualitätsmanagement / QM PLan</t>
   </si>
 </sst>
 </file>
@@ -935,35 +935,7 @@
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="9">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="6">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1307,7 +1279,7 @@
   <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="H23" sqref="H23"/>
+      <selection activeCell="A35" sqref="A35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1361,7 +1333,7 @@
     </row>
     <row r="8" spans="1:6">
       <c r="A8" s="50" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B8" s="52"/>
     </row>
@@ -1487,7 +1459,7 @@
     </row>
     <row r="19" spans="1:7" s="22" customFormat="1">
       <c r="A19" s="19" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B19" s="20"/>
       <c r="C19" s="21">
@@ -1504,7 +1476,7 @@
     </row>
     <row r="20" spans="1:7" s="22" customFormat="1">
       <c r="A20" s="19" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B20" s="20"/>
       <c r="C20" s="21">
@@ -1521,7 +1493,7 @@
     </row>
     <row r="21" spans="1:7" s="22" customFormat="1">
       <c r="A21" s="19" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B21" s="20"/>
       <c r="C21" s="21">
@@ -1538,7 +1510,7 @@
     </row>
     <row r="22" spans="1:7" s="22" customFormat="1">
       <c r="A22" s="19" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21">
@@ -1555,7 +1527,7 @@
     </row>
     <row r="23" spans="1:7" s="22" customFormat="1">
       <c r="A23" s="19" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B23" s="20"/>
       <c r="C23" s="21">
@@ -1607,7 +1579,7 @@
     </row>
     <row r="27" spans="1:7" s="22" customFormat="1">
       <c r="A27" s="8" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B27" s="20"/>
       <c r="C27" s="24">
@@ -1624,7 +1596,7 @@
     </row>
     <row r="28" spans="1:7" s="22" customFormat="1">
       <c r="A28" s="19" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="B28" s="20"/>
       <c r="C28" s="26">
@@ -1641,7 +1613,7 @@
     </row>
     <row r="29" spans="1:7" s="22" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="26">
@@ -1658,7 +1630,7 @@
     </row>
     <row r="30" spans="1:7">
       <c r="A30" s="19" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B30" s="20"/>
       <c r="C30" s="66">
@@ -1728,7 +1700,7 @@
     </row>
     <row r="35" spans="1:7" s="9" customFormat="1">
       <c r="A35" s="8" t="s">
-        <v>21</v>
+        <v>33</v>
       </c>
       <c r="B35" s="17"/>
       <c r="C35" s="26">
@@ -1745,7 +1717,7 @@
     </row>
     <row r="36" spans="1:7" s="9" customFormat="1">
       <c r="A36" s="8" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B36" s="17"/>
       <c r="C36" s="26">
@@ -1762,7 +1734,7 @@
     </row>
     <row r="37" spans="1:7" s="22" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B37" s="20"/>
       <c r="C37" s="27">
@@ -1813,7 +1785,7 @@
     </row>
     <row r="41" spans="1:7" s="9" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B41" s="17"/>
       <c r="C41" s="26">
@@ -1830,7 +1802,7 @@
     </row>
     <row r="42" spans="1:7" s="9" customFormat="1">
       <c r="A42" s="8" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B42" s="17"/>
       <c r="C42" s="26">
@@ -1847,7 +1819,7 @@
     </row>
     <row r="43" spans="1:7" s="22" customFormat="1">
       <c r="A43" s="8" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B43" s="20"/>
       <c r="C43" s="27">
@@ -1899,7 +1871,7 @@
         <v>-2</v>
       </c>
       <c r="G47" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
     </row>
     <row r="50" spans="1:7" ht="12" thickBot="1">
@@ -1935,24 +1907,24 @@
     <mergeCell ref="C51:E51"/>
   </mergeCells>
   <conditionalFormatting sqref="E52:E1048576 E25:E50 E13:E23">
-    <cfRule type="cellIs" dxfId="8" priority="7" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="6" priority="9" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E24">
-    <cfRule type="cellIs" dxfId="5" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="2" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="36">
   <si>
     <t xml:space="preserve">Ressourcenplan </t>
   </si>
@@ -108,9 +108,6 @@
     <t>Webanwendung erstellen</t>
   </si>
   <si>
-    <t>! Abzug der doppelten! Noch machen</t>
-  </si>
-  <si>
     <t>Testdaten für die Datenbank</t>
   </si>
   <si>
@@ -121,6 +118,15 @@
   </si>
   <si>
     <t>Qualitätsmanagement / QM PLan</t>
+  </si>
+  <si>
+    <t>Nutzwertanalyse</t>
+  </si>
+  <si>
+    <t>Testing</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Testing </t>
   </si>
 </sst>
 </file>
@@ -192,7 +198,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="46">
+  <borders count="44">
     <border>
       <left/>
       <right/>
@@ -714,26 +720,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right style="dotted">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dotted">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top/>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color indexed="64"/>
       </left>
@@ -767,7 +753,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="75">
+  <cellXfs count="74">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -906,31 +892,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="40" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="42" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="42" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="43" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="44" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="44" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="42" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="44" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="45" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
@@ -1268,7 +1249,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1276,10 +1257,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G52"/>
+  <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A35" sqref="A35"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="J53" sqref="J53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1384,7 +1365,7 @@
         <v>1</v>
       </c>
       <c r="E14" s="47">
-        <f t="shared" ref="E14:E44" si="0">D14-C14</f>
+        <f t="shared" ref="E14:E50" si="0">D14-C14</f>
         <v>0</v>
       </c>
       <c r="F14" s="29"/>
@@ -1510,7 +1491,7 @@
     </row>
     <row r="22" spans="1:7" s="22" customFormat="1">
       <c r="A22" s="19" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B22" s="20"/>
       <c r="C22" s="21">
@@ -1542,371 +1523,474 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:7" ht="12" thickBot="1">
-      <c r="A24" s="19"/>
+    <row r="24" spans="1:7" s="73" customFormat="1">
+      <c r="A24" s="19" t="s">
+        <v>35</v>
+      </c>
       <c r="B24" s="20"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="34"/>
-      <c r="E24" s="48"/>
+      <c r="C24" s="21">
+        <v>1</v>
+      </c>
+      <c r="D24" s="34">
+        <v>1</v>
+      </c>
+      <c r="E24" s="48">
+        <f>D24-C24</f>
+        <v>0</v>
+      </c>
       <c r="F24" s="23"/>
       <c r="G24" s="22"/>
     </row>
-    <row r="25" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A25" s="2" t="s">
+    <row r="25" spans="1:7" ht="12" thickBot="1">
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
+      <c r="C25" s="21"/>
+      <c r="D25" s="34"/>
+      <c r="E25" s="48"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="22"/>
+    </row>
+    <row r="26" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A26" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="C25" s="14"/>
-      <c r="D25" s="6"/>
-      <c r="E25" s="49"/>
-      <c r="F25" s="28"/>
-    </row>
-    <row r="26" spans="1:7" s="7" customFormat="1">
-      <c r="A26" s="8" t="s">
+      <c r="C26" s="14"/>
+      <c r="D26" s="6"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="28"/>
+    </row>
+    <row r="27" spans="1:7" s="7" customFormat="1">
+      <c r="A27" s="8" t="s">
         <v>6</v>
       </c>
-      <c r="B26" s="17"/>
-      <c r="C26" s="24">
-        <v>1</v>
-      </c>
-      <c r="D26" s="33">
-        <v>1</v>
-      </c>
-      <c r="E26" s="46">
+      <c r="B27" s="17"/>
+      <c r="C27" s="24">
+        <v>1</v>
+      </c>
+      <c r="D27" s="33">
+        <v>1</v>
+      </c>
+      <c r="E27" s="46">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F26" s="38"/>
-    </row>
-    <row r="27" spans="1:7" s="22" customFormat="1">
-      <c r="A27" s="8" t="s">
+      <c r="F27" s="38"/>
+    </row>
+    <row r="28" spans="1:7" s="22" customFormat="1">
+      <c r="A28" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="B27" s="20"/>
-      <c r="C27" s="24">
+      <c r="B28" s="20"/>
+      <c r="C28" s="24">
         <v>2</v>
       </c>
-      <c r="D27" s="33">
-        <v>2</v>
-      </c>
-      <c r="E27" s="47">
-        <f>D27-C27</f>
-        <v>0</v>
-      </c>
-      <c r="F27" s="23"/>
-    </row>
-    <row r="28" spans="1:7" s="22" customFormat="1">
-      <c r="A28" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B28" s="20"/>
-      <c r="C28" s="26">
-        <v>1</v>
-      </c>
-      <c r="D28" s="36">
+      <c r="D28" s="33">
         <v>2</v>
       </c>
       <c r="E28" s="47">
         <f>D28-C28</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F28" s="23"/>
     </row>
     <row r="29" spans="1:7" s="22" customFormat="1">
       <c r="A29" s="19" t="s">
-        <v>18</v>
+        <v>31</v>
       </c>
       <c r="B29" s="20"/>
       <c r="C29" s="26">
+        <v>1</v>
+      </c>
+      <c r="D29" s="36">
         <v>2</v>
-      </c>
-      <c r="D29" s="36">
-        <v>1</v>
       </c>
       <c r="E29" s="47">
         <f>D29-C29</f>
-        <v>-1</v>
+        <v>1</v>
       </c>
       <c r="F29" s="23"/>
     </row>
-    <row r="30" spans="1:7">
+    <row r="30" spans="1:7" s="22" customFormat="1">
       <c r="A30" s="19" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B30" s="20"/>
-      <c r="C30" s="66">
+      <c r="C30" s="26">
         <v>2</v>
       </c>
-      <c r="D30" s="67">
+      <c r="D30" s="36">
         <v>1</v>
       </c>
       <c r="E30" s="47">
         <f>D30-C30</f>
         <v>-1</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A31" s="10"/>
-      <c r="B31" s="18"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="35"/>
+      <c r="F30" s="23"/>
+    </row>
+    <row r="31" spans="1:7">
+      <c r="A31" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="B31" s="20"/>
+      <c r="C31" s="26">
+        <v>2</v>
+      </c>
+      <c r="D31" s="36">
+        <v>1</v>
+      </c>
       <c r="E31" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F31" s="39"/>
-    </row>
-    <row r="32" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A32" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="C32" s="14"/>
-      <c r="D32" s="6"/>
-      <c r="E32" s="49"/>
-      <c r="F32" s="28"/>
-    </row>
-    <row r="33" spans="1:7" s="7" customFormat="1">
-      <c r="A33" s="8" t="s">
-        <v>6</v>
-      </c>
-      <c r="B33" s="17"/>
-      <c r="C33" s="24">
-        <v>1</v>
-      </c>
-      <c r="D33" s="33">
-        <v>1</v>
+        <f>D31-C31</f>
+        <v>-1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
+      <c r="A32" s="19" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="20"/>
+      <c r="C32" s="26">
+        <v>1</v>
+      </c>
+      <c r="D32" s="36">
+        <v>1</v>
+      </c>
+      <c r="E32" s="47">
+        <f>D32-C32</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6">
+      <c r="A33" s="19" t="s">
+        <v>23</v>
+      </c>
+      <c r="B33" s="20"/>
+      <c r="C33" s="26">
+        <v>4</v>
+      </c>
+      <c r="D33" s="36">
+        <v>4</v>
       </c>
       <c r="E33" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F33" s="38"/>
-    </row>
-    <row r="34" spans="1:7" s="9" customFormat="1">
+        <f>D33-C33</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6">
       <c r="A34" s="19" t="s">
-        <v>13</v>
+        <v>35</v>
       </c>
       <c r="B34" s="20"/>
-      <c r="C34" s="21">
-        <v>5</v>
-      </c>
-      <c r="D34" s="34">
-        <v>5</v>
+      <c r="C34" s="26">
+        <v>1</v>
+      </c>
+      <c r="D34" s="36">
+        <v>1</v>
       </c>
       <c r="E34" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F34" s="29"/>
-    </row>
-    <row r="35" spans="1:7" s="9" customFormat="1">
-      <c r="A35" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B35" s="17"/>
-      <c r="C35" s="26">
-        <v>6</v>
-      </c>
-      <c r="D35" s="36">
-        <v>7</v>
-      </c>
+        <f>D34-C34</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A35" s="10"/>
+      <c r="B35" s="18"/>
+      <c r="C35" s="15"/>
+      <c r="D35" s="35"/>
       <c r="E35" s="47">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="F35" s="29"/>
-    </row>
-    <row r="36" spans="1:7" s="9" customFormat="1">
-      <c r="A36" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36" s="17"/>
-      <c r="C36" s="26">
-        <v>3</v>
-      </c>
-      <c r="D36" s="36">
-        <v>3</v>
-      </c>
-      <c r="E36" s="47">
-        <f t="shared" si="0"/>
-        <v>0</v>
-      </c>
-      <c r="F36" s="29"/>
-    </row>
-    <row r="37" spans="1:7" s="22" customFormat="1">
+        <v>0</v>
+      </c>
+      <c r="F35" s="39"/>
+    </row>
+    <row r="36" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A36" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C36" s="14"/>
+      <c r="D36" s="6"/>
+      <c r="E36" s="49"/>
+      <c r="F36" s="28"/>
+    </row>
+    <row r="37" spans="1:6" s="7" customFormat="1">
       <c r="A37" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="B37" s="20"/>
-      <c r="C37" s="27">
-        <v>13</v>
+        <v>6</v>
+      </c>
+      <c r="B37" s="17"/>
+      <c r="C37" s="24">
+        <v>1</v>
       </c>
       <c r="D37" s="33">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="E37" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F37" s="23"/>
-    </row>
-    <row r="38" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A38" s="10"/>
-      <c r="B38" s="18"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="37"/>
-      <c r="E38" s="47"/>
-      <c r="F38" s="39"/>
-    </row>
-    <row r="39" spans="1:7" s="3" customFormat="1" ht="12" thickBot="1">
-      <c r="A39" s="2" t="s">
+      <c r="F37" s="38"/>
+    </row>
+    <row r="38" spans="1:6" s="9" customFormat="1">
+      <c r="A38" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="B38" s="20"/>
+      <c r="C38" s="21">
         <v>5</v>
       </c>
-      <c r="C39" s="14"/>
-      <c r="D39" s="6"/>
-      <c r="E39" s="49"/>
-      <c r="F39" s="28"/>
-    </row>
-    <row r="40" spans="1:7" s="7" customFormat="1">
+      <c r="D38" s="34">
+        <v>5</v>
+      </c>
+      <c r="E38" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="29"/>
+    </row>
+    <row r="39" spans="1:6" s="9" customFormat="1">
+      <c r="A39" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="17"/>
+      <c r="C39" s="26">
+        <v>6</v>
+      </c>
+      <c r="D39" s="36">
+        <v>6</v>
+      </c>
+      <c r="E39" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F39" s="29"/>
+    </row>
+    <row r="40" spans="1:6" s="9" customFormat="1">
       <c r="A40" s="8" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="B40" s="17"/>
-      <c r="C40" s="24">
-        <v>1</v>
-      </c>
-      <c r="D40" s="33">
-        <v>1</v>
+      <c r="C40" s="26">
+        <v>3</v>
+      </c>
+      <c r="D40" s="36">
+        <v>3</v>
       </c>
       <c r="E40" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F40" s="38"/>
-    </row>
-    <row r="41" spans="1:7" s="9" customFormat="1">
+      <c r="F40" s="29"/>
+    </row>
+    <row r="41" spans="1:6" s="22" customFormat="1">
       <c r="A41" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="B41" s="17"/>
-      <c r="C41" s="26">
-        <v>2</v>
-      </c>
-      <c r="D41" s="36">
-        <v>2</v>
+        <v>28</v>
+      </c>
+      <c r="B41" s="20"/>
+      <c r="C41" s="27">
+        <v>13</v>
+      </c>
+      <c r="D41" s="33">
+        <v>13</v>
       </c>
       <c r="E41" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F41" s="29"/>
-    </row>
-    <row r="42" spans="1:7" s="9" customFormat="1">
-      <c r="A42" s="8" t="s">
-        <v>22</v>
-      </c>
-      <c r="B42" s="17"/>
+      <c r="F41" s="23"/>
+    </row>
+    <row r="42" spans="1:6" s="22" customFormat="1">
+      <c r="A42" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B42" s="20"/>
       <c r="C42" s="26">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D42" s="36">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E42" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F42" s="29"/>
-    </row>
-    <row r="43" spans="1:7" s="22" customFormat="1">
-      <c r="A43" s="8" t="s">
+      <c r="F42" s="23"/>
+    </row>
+    <row r="43" spans="1:6" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A43" s="10"/>
+      <c r="B43" s="18"/>
+      <c r="C43" s="25"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="47"/>
+      <c r="F43" s="39"/>
+    </row>
+    <row r="44" spans="1:6" s="3" customFormat="1" ht="12" thickBot="1">
+      <c r="A44" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="C44" s="14"/>
+      <c r="D44" s="6"/>
+      <c r="E44" s="49"/>
+      <c r="F44" s="28"/>
+    </row>
+    <row r="45" spans="1:6" s="7" customFormat="1">
+      <c r="A45" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45" s="17"/>
+      <c r="C45" s="24">
+        <v>1</v>
+      </c>
+      <c r="D45" s="33">
+        <v>1</v>
+      </c>
+      <c r="E45" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F45" s="38"/>
+    </row>
+    <row r="46" spans="1:6" s="9" customFormat="1">
+      <c r="A46" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B46" s="17"/>
+      <c r="C46" s="26">
+        <v>2</v>
+      </c>
+      <c r="D46" s="36">
+        <v>3</v>
+      </c>
+      <c r="E46" s="47">
+        <f t="shared" si="0"/>
+        <v>1</v>
+      </c>
+      <c r="F46" s="29"/>
+    </row>
+    <row r="47" spans="1:6" s="9" customFormat="1">
+      <c r="A47" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B47" s="17"/>
+      <c r="C47" s="26">
+        <v>3</v>
+      </c>
+      <c r="D47" s="36">
+        <v>3</v>
+      </c>
+      <c r="E47" s="47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F47" s="29"/>
+    </row>
+    <row r="48" spans="1:6" s="22" customFormat="1">
+      <c r="A48" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="B43" s="20"/>
-      <c r="C43" s="27">
+      <c r="B48" s="20"/>
+      <c r="C48" s="27">
         <v>13</v>
       </c>
-      <c r="D43" s="33">
+      <c r="D48" s="33">
         <v>13</v>
       </c>
-      <c r="E43" s="47">
+      <c r="E48" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F43" s="23"/>
-    </row>
-    <row r="44" spans="1:7" s="22" customFormat="1">
-      <c r="A44" s="19"/>
-      <c r="B44" s="20"/>
-      <c r="C44" s="66"/>
-      <c r="D44" s="67"/>
-      <c r="E44" s="47">
+      <c r="F48" s="23"/>
+    </row>
+    <row r="49" spans="1:7" s="22" customFormat="1">
+      <c r="A49" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B49" s="20"/>
+      <c r="C49" s="26">
+        <v>1</v>
+      </c>
+      <c r="D49" s="36">
+        <v>1</v>
+      </c>
+      <c r="E49" s="47">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="F44" s="23"/>
-    </row>
-    <row r="45" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
-      <c r="A45" s="10"/>
-      <c r="B45" s="18"/>
-      <c r="C45" s="25"/>
-      <c r="D45" s="37"/>
-      <c r="E45" s="72"/>
-      <c r="F45" s="39"/>
-    </row>
-    <row r="47" spans="1:7">
-      <c r="A47" s="68"/>
-      <c r="B47" s="68" t="s">
+      <c r="F49" s="23"/>
+    </row>
+    <row r="50" spans="1:7" s="22" customFormat="1">
+      <c r="A50" s="19" t="s">
+        <v>34</v>
+      </c>
+      <c r="B50" s="20"/>
+      <c r="C50" s="26">
+        <v>1</v>
+      </c>
+      <c r="D50" s="36">
+        <v>1</v>
+      </c>
+      <c r="E50" s="48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="23"/>
+    </row>
+    <row r="51" spans="1:7" s="11" customFormat="1" ht="12" thickBot="1">
+      <c r="A51" s="10"/>
+      <c r="B51" s="18"/>
+      <c r="C51" s="25"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="70"/>
+      <c r="F51" s="39"/>
+    </row>
+    <row r="53" spans="1:7">
+      <c r="A53" s="66"/>
+      <c r="B53" s="66" t="s">
         <v>3</v>
       </c>
-      <c r="C47" s="70">
-        <f>SUM(C14:C45)</f>
-        <v>95</v>
-      </c>
-      <c r="D47" s="71">
-        <f>SUM(D14:D45)</f>
-        <v>93</v>
-      </c>
-      <c r="E47" s="69">
-        <f>SUM(E14:E45)</f>
+      <c r="C53" s="68">
+        <f>SUM(C14:C51)</f>
+        <v>105</v>
+      </c>
+      <c r="D53" s="69">
+        <f>SUM(D14:D51)</f>
+        <v>103</v>
+      </c>
+      <c r="E53" s="67">
+        <f>SUM(E14:E51)</f>
         <v>-2</v>
       </c>
-      <c r="G47" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" ht="12" thickBot="1">
-      <c r="C50" s="56"/>
-      <c r="D50" s="57"/>
-      <c r="E50" s="58"/>
-      <c r="F50" s="59"/>
-      <c r="G50" s="60"/>
-    </row>
-    <row r="51" spans="1:7" ht="12" thickBot="1">
-      <c r="C51" s="73" t="s">
+    </row>
+    <row r="56" spans="1:7" ht="12" thickBot="1">
+      <c r="C56" s="56"/>
+      <c r="D56" s="57"/>
+      <c r="E56" s="58"/>
+      <c r="F56" s="59"/>
+      <c r="G56" s="60"/>
+    </row>
+    <row r="57" spans="1:7" ht="12" thickBot="1">
+      <c r="C57" s="71" t="s">
         <v>10</v>
       </c>
-      <c r="D51" s="74"/>
-      <c r="E51" s="74"/>
-      <c r="F51" s="55">
-        <f>D47</f>
-        <v>93</v>
-      </c>
-      <c r="G51" s="16"/>
-    </row>
-    <row r="52" spans="1:7">
-      <c r="A52" s="64"/>
-      <c r="B52" s="65"/>
-      <c r="C52" s="61"/>
-      <c r="D52" s="62"/>
-      <c r="E52" s="63"/>
-      <c r="F52" s="64"/>
-      <c r="G52" s="65"/>
+      <c r="D57" s="72"/>
+      <c r="E57" s="72"/>
+      <c r="F57" s="55">
+        <f>D53</f>
+        <v>103</v>
+      </c>
+      <c r="G57" s="16"/>
+    </row>
+    <row r="58" spans="1:7">
+      <c r="A58" s="64"/>
+      <c r="B58" s="65"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="62"/>
+      <c r="E58" s="63"/>
+      <c r="F58" s="64"/>
+      <c r="G58" s="65"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="C51:E51"/>
+    <mergeCell ref="C57:E57"/>
   </mergeCells>
-  <conditionalFormatting sqref="E52:E1048576 E25:E50 E13:E23">
+  <conditionalFormatting sqref="E58:E1048576 E26:E56 E13:E24">
     <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
@@ -1917,7 +2001,7 @@
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E24">
+  <conditionalFormatting sqref="E25">
     <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
       <formula>0</formula>
     </cfRule>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -905,46 +905,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="43" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="6">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <color rgb="FF00B050"/>
-      </font>
-    </dxf>
+  <dxfs count="3">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1249,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1260,7 +1232,7 @@
   <dimension ref="A1:G58"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="J53" sqref="J53"/>
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
@@ -1523,7 +1495,7 @@
       </c>
       <c r="F23" s="23"/>
     </row>
-    <row r="24" spans="1:7" s="73" customFormat="1">
+    <row r="24" spans="1:7" s="71" customFormat="1">
       <c r="A24" s="19" t="s">
         <v>35</v>
       </c>
@@ -1588,7 +1560,7 @@
         <v>2</v>
       </c>
       <c r="E28" s="47">
-        <f>D28-C28</f>
+        <f t="shared" ref="E28:E34" si="1">D28-C28</f>
         <v>0</v>
       </c>
       <c r="F28" s="23"/>
@@ -1605,7 +1577,7 @@
         <v>2</v>
       </c>
       <c r="E29" s="47">
-        <f>D29-C29</f>
+        <f t="shared" si="1"/>
         <v>1</v>
       </c>
       <c r="F29" s="23"/>
@@ -1622,7 +1594,7 @@
         <v>1</v>
       </c>
       <c r="E30" s="47">
-        <f>D30-C30</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
       <c r="F30" s="23"/>
@@ -1639,7 +1611,7 @@
         <v>1</v>
       </c>
       <c r="E31" s="47">
-        <f>D31-C31</f>
+        <f t="shared" si="1"/>
         <v>-1</v>
       </c>
     </row>
@@ -1655,7 +1627,7 @@
         <v>1</v>
       </c>
       <c r="E32" s="47">
-        <f>D32-C32</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1671,7 +1643,7 @@
         <v>4</v>
       </c>
       <c r="E33" s="47">
-        <f>D33-C33</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1687,7 +1659,7 @@
         <v>1</v>
       </c>
       <c r="E34" s="47">
-        <f>D34-C34</f>
+        <f t="shared" si="1"/>
         <v>0</v>
       </c>
     </row>
@@ -1907,11 +1879,11 @@
         <v>1</v>
       </c>
       <c r="D49" s="36">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E49" s="47">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F49" s="23"/>
     </row>
@@ -1951,11 +1923,11 @@
       </c>
       <c r="D53" s="69">
         <f>SUM(D14:D51)</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="E53" s="67">
         <f>SUM(E14:E51)</f>
-        <v>-2</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="56" spans="1:7" ht="12" thickBot="1">
@@ -1966,14 +1938,14 @@
       <c r="G56" s="60"/>
     </row>
     <row r="57" spans="1:7" ht="12" thickBot="1">
-      <c r="C57" s="71" t="s">
+      <c r="C57" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="D57" s="72"/>
-      <c r="E57" s="72"/>
+      <c r="D57" s="73"/>
+      <c r="E57" s="73"/>
       <c r="F57" s="55">
         <f>D53</f>
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="G57" s="16"/>
     </row>
@@ -1990,25 +1962,14 @@
   <mergeCells count="1">
     <mergeCell ref="C57:E57"/>
   </mergeCells>
-  <conditionalFormatting sqref="E58:E1048576 E26:E56 E13:E24">
-    <cfRule type="cellIs" dxfId="5" priority="7" operator="equal">
+  <conditionalFormatting sqref="E58:E1048576 E13:E56">
+    <cfRule type="cellIs" dxfId="2" priority="7" operator="equal">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="4" priority="8" operator="lessThan">
+    <cfRule type="cellIs" dxfId="1" priority="8" operator="lessThan">
       <formula>0</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="3" priority="9" operator="greaterThan">
-      <formula>0</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E25">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="lessThan">
-      <formula>0</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="0" priority="3" operator="greaterThan">
+    <cfRule type="cellIs" dxfId="0" priority="9" operator="greaterThan">
       <formula>0</formula>
     </cfRule>
   </conditionalFormatting>

--- a/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
+++ b/Dokumentation + Diagramme etc/Ressourcenplanung.xlsx
@@ -1221,7 +1221,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1231,8 +1231,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:G58"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="I56" sqref="I56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="11.4"/>
